--- a/Data/AllWI4.xlsx
+++ b/Data/AllWI4.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Actions</x:t>
   </x:si>
@@ -41,7 +41,7 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>644404</x:t>
+    <x:t>436414</x:t>
   </x:si>
   <x:si>
     <x:t>Generate Yearly Report for Vendor</x:t>
@@ -53,115 +53,73 @@
     <x:t>Open</x:t>
   </x:si>
   <x:si>
-    <x:t>2018-11-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>630574</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>907594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>964774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>545374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>778324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>572954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-02-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>562994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-01-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>855074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-08-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>706214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>980014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-06</x:t>
+    <x:t>2018-02-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>780654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>661354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>664454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>711554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-20</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -518,7 +476,7 @@
       <x:selection activeCell="E17" sqref="E17 E17:E17"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.018594" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="18.124844" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
     <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
@@ -627,7 +585,7 @@
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="B7" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>7</x:v>
@@ -639,12 +597,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="B8" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>7</x:v>
@@ -656,12 +614,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="B9" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>7</x:v>
@@ -673,12 +631,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="B10" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>7</x:v>
@@ -690,12 +648,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="B11" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
         <x:v>7</x:v>
@@ -707,12 +665,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="B12" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
         <x:v>7</x:v>
@@ -724,12 +682,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="B13" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
         <x:v>7</x:v>
@@ -741,12 +699,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="B14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
         <x:v>7</x:v>
@@ -758,12 +716,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="B15" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
         <x:v>7</x:v>
@@ -775,12 +733,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="B16" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
         <x:v>7</x:v>
@@ -792,12 +750,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="B17" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
         <x:v>7</x:v>
@@ -809,12 +767,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="B18" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
         <x:v>7</x:v>
@@ -826,12 +784,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="B19" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
         <x:v>7</x:v>
@@ -843,24 +801,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="B20" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
